--- a/data/pca/factorExposure/factorExposure_2014-09-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-09-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.0004248432093602718</v>
+        <v>0.01783925922569432</v>
       </c>
       <c r="C2">
-        <v>-0.1120201703774739</v>
+        <v>0.07070292808189672</v>
       </c>
       <c r="D2">
-        <v>0.01725493673792041</v>
+        <v>0.03205763398109966</v>
       </c>
       <c r="E2">
-        <v>0.2117609474601693</v>
+        <v>-0.05199312922163329</v>
       </c>
       <c r="F2">
-        <v>-0.06755748506481959</v>
+        <v>-0.1492628260636591</v>
       </c>
       <c r="G2">
-        <v>0.04489624083422616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.01654052187692466</v>
+      </c>
+      <c r="H2">
+        <v>0.06125639189255518</v>
+      </c>
+      <c r="I2">
+        <v>0.01814037802199119</v>
+      </c>
+      <c r="J2">
+        <v>0.02312835967842362</v>
+      </c>
+      <c r="K2">
+        <v>-0.1764519564479284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01518677256281982</v>
+        <v>0.01622564793304918</v>
       </c>
       <c r="C4">
-        <v>-0.1668855475637035</v>
+        <v>0.1448680907721044</v>
       </c>
       <c r="D4">
-        <v>0.03202137178362287</v>
+        <v>0.06381995993146659</v>
       </c>
       <c r="E4">
-        <v>0.05507758589253258</v>
+        <v>0.03198025428320744</v>
       </c>
       <c r="F4">
-        <v>0.05767975569685714</v>
+        <v>-0.07035187970303784</v>
       </c>
       <c r="G4">
-        <v>-0.04337907155958041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0205696292049089</v>
+      </c>
+      <c r="H4">
+        <v>0.07962027729534109</v>
+      </c>
+      <c r="I4">
+        <v>0.110847082674239</v>
+      </c>
+      <c r="J4">
+        <v>0.04198712314711348</v>
+      </c>
+      <c r="K4">
+        <v>-0.16462664342886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02627674450628916</v>
+        <v>0.03750190873150038</v>
       </c>
       <c r="C6">
-        <v>-0.07644090586894736</v>
+        <v>0.08704709800631923</v>
       </c>
       <c r="D6">
-        <v>0.05731346115335233</v>
+        <v>0.02810416152003911</v>
       </c>
       <c r="E6">
-        <v>0.06668598970759237</v>
+        <v>-0.04120518752078748</v>
       </c>
       <c r="F6">
-        <v>0.007210213534115154</v>
+        <v>-0.03184746630486886</v>
       </c>
       <c r="G6">
-        <v>-0.02511571395431371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0381037963385092</v>
+      </c>
+      <c r="H6">
+        <v>0.03399243658264673</v>
+      </c>
+      <c r="I6">
+        <v>-0.01223922738858639</v>
+      </c>
+      <c r="J6">
+        <v>-0.08813840059781748</v>
+      </c>
+      <c r="K6">
+        <v>-0.08207512068400054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.0003428576312852366</v>
+        <v>0.01850851473762997</v>
       </c>
       <c r="C7">
-        <v>-0.06241298243649955</v>
+        <v>0.07282718549947644</v>
       </c>
       <c r="D7">
-        <v>0.03587004639429409</v>
+        <v>0.02861274553934554</v>
       </c>
       <c r="E7">
-        <v>0.01657631336212618</v>
+        <v>0.0179542280253617</v>
       </c>
       <c r="F7">
-        <v>0.02654177830040484</v>
+        <v>0.004517079717996848</v>
       </c>
       <c r="G7">
-        <v>-0.03173115313589964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02957273338091588</v>
+      </c>
+      <c r="H7">
+        <v>0.09622841039777548</v>
+      </c>
+      <c r="I7">
+        <v>0.02353491816461632</v>
+      </c>
+      <c r="J7">
+        <v>-0.002734031907603189</v>
+      </c>
+      <c r="K7">
+        <v>-0.0334600802017201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01110444536385638</v>
+        <v>-0.0003223701416792673</v>
       </c>
       <c r="C8">
-        <v>-0.06679805402319687</v>
+        <v>0.06183404958539737</v>
       </c>
       <c r="D8">
-        <v>0.04386462681518167</v>
+        <v>0.04449797583766048</v>
       </c>
       <c r="E8">
-        <v>0.0671112210725268</v>
+        <v>-0.007031269069153565</v>
       </c>
       <c r="F8">
-        <v>0.004159472709143819</v>
+        <v>-0.06034826905288825</v>
       </c>
       <c r="G8">
-        <v>-0.006923325626370159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02066472973724517</v>
+      </c>
+      <c r="H8">
+        <v>0.06099124337509251</v>
+      </c>
+      <c r="I8">
+        <v>0.02134642832689257</v>
+      </c>
+      <c r="J8">
+        <v>-0.0004919258177568212</v>
+      </c>
+      <c r="K8">
+        <v>0.01146157730817932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.007055905829427995</v>
+        <v>0.01262314675843583</v>
       </c>
       <c r="C9">
-        <v>-0.1181161244246469</v>
+        <v>0.1025863443283376</v>
       </c>
       <c r="D9">
-        <v>0.04624550310954437</v>
+        <v>0.04425067773256816</v>
       </c>
       <c r="E9">
-        <v>0.01497386603261804</v>
+        <v>0.007307472470685549</v>
       </c>
       <c r="F9">
-        <v>0.006495078759996785</v>
+        <v>-0.03415807185420605</v>
       </c>
       <c r="G9">
-        <v>-0.05917340756036626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.004625812519055314</v>
+      </c>
+      <c r="H9">
+        <v>0.0835693696984393</v>
+      </c>
+      <c r="I9">
+        <v>0.07434979039252435</v>
+      </c>
+      <c r="J9">
+        <v>0.007592816214446229</v>
+      </c>
+      <c r="K9">
+        <v>-0.07639430762290376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2736991618388125</v>
+        <v>0.2484829919738827</v>
       </c>
       <c r="C10">
-        <v>0.06981755320783821</v>
+        <v>-0.08945034575585632</v>
       </c>
       <c r="D10">
-        <v>-0.02129468400126788</v>
+        <v>-0.007121856538190469</v>
       </c>
       <c r="E10">
-        <v>-0.02748432826233327</v>
+        <v>-0.01068624266125502</v>
       </c>
       <c r="F10">
-        <v>0.00502653608249613</v>
+        <v>0.002818929624563146</v>
       </c>
       <c r="G10">
-        <v>-0.02499088913780624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02317394058729539</v>
+      </c>
+      <c r="H10">
+        <v>0.03332147628069549</v>
+      </c>
+      <c r="I10">
+        <v>0.01498451057651877</v>
+      </c>
+      <c r="J10">
+        <v>0.1753989144662898</v>
+      </c>
+      <c r="K10">
+        <v>0.09569059864157585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.003138812840755609</v>
+        <v>0.01624090728803223</v>
       </c>
       <c r="C11">
-        <v>-0.06472718625129312</v>
+        <v>0.08250619671072737</v>
       </c>
       <c r="D11">
-        <v>0.03031851764258352</v>
+        <v>0.03811990354401877</v>
       </c>
       <c r="E11">
-        <v>-0.02192121977459273</v>
+        <v>0.004884981520868835</v>
       </c>
       <c r="F11">
-        <v>0.007991946264555688</v>
+        <v>0.01374473418332585</v>
       </c>
       <c r="G11">
-        <v>-0.04421947831542956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.008415323732296993</v>
+      </c>
+      <c r="H11">
+        <v>0.02853445507110993</v>
+      </c>
+      <c r="I11">
+        <v>0.01708836771362097</v>
+      </c>
+      <c r="J11">
+        <v>-0.02497111779150874</v>
+      </c>
+      <c r="K11">
+        <v>0.01153684127591671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>8.355406358874836e-05</v>
+        <v>0.01560279943196635</v>
       </c>
       <c r="C12">
-        <v>-0.04355196673231378</v>
+        <v>0.05577319488950282</v>
       </c>
       <c r="D12">
-        <v>0.03622644230058315</v>
+        <v>0.02509077625045969</v>
       </c>
       <c r="E12">
-        <v>-0.01637613261600374</v>
+        <v>-0.01948411240660083</v>
       </c>
       <c r="F12">
-        <v>-0.02328575076552254</v>
+        <v>0.01308487457842204</v>
       </c>
       <c r="G12">
-        <v>-0.06153523550863857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0280886010974416</v>
+      </c>
+      <c r="H12">
+        <v>0.02421098576288496</v>
+      </c>
+      <c r="I12">
+        <v>0.01906452403707331</v>
+      </c>
+      <c r="J12">
+        <v>-0.01610885123678883</v>
+      </c>
+      <c r="K12">
+        <v>0.000696092916132243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.006678520803296429</v>
+        <v>0.004844256228334352</v>
       </c>
       <c r="C13">
-        <v>-0.1161585470754288</v>
+        <v>0.1210184965228201</v>
       </c>
       <c r="D13">
-        <v>0.06866383569404362</v>
+        <v>0.04206575215954621</v>
       </c>
       <c r="E13">
-        <v>0.04299896877047811</v>
+        <v>-0.1179796099927826</v>
       </c>
       <c r="F13">
-        <v>-0.05939131197078469</v>
+        <v>-0.103717986725462</v>
       </c>
       <c r="G13">
-        <v>-0.1691392210918887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1188877790171613</v>
+      </c>
+      <c r="H13">
+        <v>0.1469784816007019</v>
+      </c>
+      <c r="I13">
+        <v>-0.1130372656133147</v>
+      </c>
+      <c r="J13">
+        <v>0.1868399747661121</v>
+      </c>
+      <c r="K13">
+        <v>0.2238153272005388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.004970977643249914</v>
+        <v>0.01999930893426743</v>
       </c>
       <c r="C14">
-        <v>-0.06938108535451559</v>
+        <v>0.07600174165672033</v>
       </c>
       <c r="D14">
-        <v>0.03984886066072515</v>
+        <v>0.04975234750146738</v>
       </c>
       <c r="E14">
-        <v>0.0299255617246652</v>
+        <v>-0.04443682144488072</v>
       </c>
       <c r="F14">
-        <v>-0.02696948020940798</v>
+        <v>-0.0009161495295440028</v>
       </c>
       <c r="G14">
-        <v>-0.07589778981711941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.07790586992782836</v>
+      </c>
+      <c r="H14">
+        <v>0.202882474648931</v>
+      </c>
+      <c r="I14">
+        <v>0.01615981196158838</v>
+      </c>
+      <c r="J14">
+        <v>-0.02221556827598292</v>
+      </c>
+      <c r="K14">
+        <v>0.1141675628110303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.002808272173753281</v>
+        <v>0.003463182911351969</v>
       </c>
       <c r="C15">
-        <v>-0.09818613589673622</v>
+        <v>0.08296568352992129</v>
       </c>
       <c r="D15">
-        <v>0.05050389910384232</v>
+        <v>0.03502894010546426</v>
       </c>
       <c r="E15">
-        <v>0.04532935888658596</v>
+        <v>0.00463423400436178</v>
       </c>
       <c r="F15">
-        <v>0.001931872119329253</v>
+        <v>-0.02494129848679407</v>
       </c>
       <c r="G15">
-        <v>-0.05570816713716561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02319568193391906</v>
+      </c>
+      <c r="H15">
+        <v>0.09413533153568671</v>
+      </c>
+      <c r="I15">
+        <v>0.03121307046302448</v>
+      </c>
+      <c r="J15">
+        <v>-0.02244747736054056</v>
+      </c>
+      <c r="K15">
+        <v>0.06927582735044864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.005302391140602987</v>
+        <v>0.01516277739772969</v>
       </c>
       <c r="C16">
-        <v>-0.05476947673918487</v>
+        <v>0.06202260828997715</v>
       </c>
       <c r="D16">
-        <v>0.02608652023699198</v>
+        <v>0.02633734752739551</v>
       </c>
       <c r="E16">
-        <v>-0.01437185889283113</v>
+        <v>0.001372153581719691</v>
       </c>
       <c r="F16">
-        <v>-0.008919458304975</v>
+        <v>0.008393063285765376</v>
       </c>
       <c r="G16">
-        <v>-0.03133833573810749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.008918043069271155</v>
+      </c>
+      <c r="H16">
+        <v>0.02095554329281463</v>
+      </c>
+      <c r="I16">
+        <v>0.01373542103999275</v>
+      </c>
+      <c r="J16">
+        <v>-0.01922753543068564</v>
+      </c>
+      <c r="K16">
+        <v>-0.005331345664135458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.009654038122593718</v>
+        <v>0.01445390352553273</v>
       </c>
       <c r="C20">
-        <v>-0.08474260985860053</v>
+        <v>0.08617523655543705</v>
       </c>
       <c r="D20">
-        <v>0.03736475452024528</v>
+        <v>0.02643358034214382</v>
       </c>
       <c r="E20">
-        <v>-0.02442415804348332</v>
+        <v>0.02345689669722522</v>
       </c>
       <c r="F20">
-        <v>0.01067577181970216</v>
+        <v>0.01051912900123776</v>
       </c>
       <c r="G20">
-        <v>-0.1111195569518055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03579911343080425</v>
+      </c>
+      <c r="H20">
+        <v>0.07569782395296451</v>
+      </c>
+      <c r="I20">
+        <v>0.01649308777009006</v>
+      </c>
+      <c r="J20">
+        <v>-0.01698459153609855</v>
+      </c>
+      <c r="K20">
+        <v>-0.01127550450416063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.00871034331166692</v>
+        <v>0.0114847650682875</v>
       </c>
       <c r="C21">
-        <v>-0.09206256841547734</v>
+        <v>0.07225188104613665</v>
       </c>
       <c r="D21">
-        <v>-0.01761510124435772</v>
+        <v>0.02031743007291338</v>
       </c>
       <c r="E21">
-        <v>0.03378296862122064</v>
+        <v>-0.09475983397246571</v>
       </c>
       <c r="F21">
-        <v>-0.06342879978772387</v>
+        <v>-0.02201684917054455</v>
       </c>
       <c r="G21">
-        <v>-0.06255612998378729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.02577326323721172</v>
+      </c>
+      <c r="H21">
+        <v>0.1462322707047625</v>
+      </c>
+      <c r="I21">
+        <v>-0.01662965845438373</v>
+      </c>
+      <c r="J21">
+        <v>0.0102031992113451</v>
+      </c>
+      <c r="K21">
+        <v>0.03666116759130366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01341877079594294</v>
+        <v>0.004241480626866709</v>
       </c>
       <c r="C22">
-        <v>-0.2492368406412886</v>
+        <v>0.1781656797918712</v>
       </c>
       <c r="D22">
-        <v>-0.0781488857571</v>
+        <v>0.01514328003246135</v>
       </c>
       <c r="E22">
-        <v>0.3409248630543635</v>
+        <v>0.100979648829502</v>
       </c>
       <c r="F22">
-        <v>0.2663956033074666</v>
+        <v>-0.5252468288292419</v>
       </c>
       <c r="G22">
-        <v>0.1277144742343067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.002983854691353064</v>
+      </c>
+      <c r="H22">
+        <v>-0.295274187678993</v>
+      </c>
+      <c r="I22">
+        <v>-0.09418150533655247</v>
+      </c>
+      <c r="J22">
+        <v>-0.01627510686236653</v>
+      </c>
+      <c r="K22">
+        <v>0.1811290801275603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01470039086927006</v>
+        <v>0.009480042290447976</v>
       </c>
       <c r="C23">
-        <v>-0.2519183862878992</v>
+        <v>0.1819345928002213</v>
       </c>
       <c r="D23">
-        <v>-0.08291963400505102</v>
+        <v>0.0151375103017924</v>
       </c>
       <c r="E23">
-        <v>0.3348790352052287</v>
+        <v>0.09624962823369172</v>
       </c>
       <c r="F23">
-        <v>0.2625170581296012</v>
+        <v>-0.5095277046211696</v>
       </c>
       <c r="G23">
-        <v>0.1268239844353693</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.004193842804089716</v>
+      </c>
+      <c r="H23">
+        <v>-0.2764481615663921</v>
+      </c>
+      <c r="I23">
+        <v>-0.08037121279570406</v>
+      </c>
+      <c r="J23">
+        <v>-0.01956593088115049</v>
+      </c>
+      <c r="K23">
+        <v>0.1701937570414972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.0001128610817569056</v>
+        <v>0.01577143763064524</v>
       </c>
       <c r="C24">
-        <v>-0.05074310802373281</v>
+        <v>0.06554624665867179</v>
       </c>
       <c r="D24">
-        <v>0.04348923929991981</v>
+        <v>0.03959504034903097</v>
       </c>
       <c r="E24">
-        <v>-0.01501052260796517</v>
+        <v>0.003526424708679521</v>
       </c>
       <c r="F24">
-        <v>0.0002461180052665655</v>
+        <v>0.008872307313045088</v>
       </c>
       <c r="G24">
-        <v>-0.05953822167437711</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02453051553325838</v>
+      </c>
+      <c r="H24">
+        <v>0.03928750392273143</v>
+      </c>
+      <c r="I24">
+        <v>0.01877928478825202</v>
+      </c>
+      <c r="J24">
+        <v>-0.01989641765495835</v>
+      </c>
+      <c r="K24">
+        <v>0.003326984364313903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.003074690869453103</v>
+        <v>0.02003560467116284</v>
       </c>
       <c r="C25">
-        <v>-0.0616493242123082</v>
+        <v>0.06952858589987992</v>
       </c>
       <c r="D25">
-        <v>0.02193943865332255</v>
+        <v>0.03135737016944463</v>
       </c>
       <c r="E25">
-        <v>-0.02153193611782491</v>
+        <v>0.005635887793892258</v>
       </c>
       <c r="F25">
-        <v>0.0004406816984436749</v>
+        <v>0.007884149412651838</v>
       </c>
       <c r="G25">
-        <v>-0.05374486965899918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01894331694791927</v>
+      </c>
+      <c r="H25">
+        <v>0.03276935527226944</v>
+      </c>
+      <c r="I25">
+        <v>0.02241337491210635</v>
+      </c>
+      <c r="J25">
+        <v>-0.007084118544881772</v>
+      </c>
+      <c r="K25">
+        <v>0.01486316718665247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.0004989880443803326</v>
+        <v>0.02319540901764943</v>
       </c>
       <c r="C26">
-        <v>-0.04734333822554081</v>
+        <v>0.05743653198679769</v>
       </c>
       <c r="D26">
-        <v>0.06822275201877144</v>
+        <v>0.06267382706998942</v>
       </c>
       <c r="E26">
-        <v>0.002358880551026946</v>
+        <v>0.006108777525071175</v>
       </c>
       <c r="F26">
-        <v>-0.03723626772196149</v>
+        <v>0.01661868989821181</v>
       </c>
       <c r="G26">
-        <v>-0.04286811546942729</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0006421594491576311</v>
+      </c>
+      <c r="H26">
+        <v>0.09772955198223535</v>
+      </c>
+      <c r="I26">
+        <v>0.06127189802673395</v>
+      </c>
+      <c r="J26">
+        <v>-0.03337561446975022</v>
+      </c>
+      <c r="K26">
+        <v>-0.1219509058805541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3672334085754201</v>
+        <v>0.3152948053183137</v>
       </c>
       <c r="C28">
-        <v>0.08083108277348097</v>
+        <v>-0.1060732583092609</v>
       </c>
       <c r="D28">
-        <v>-0.01571114460576456</v>
+        <v>-0.03092725248856391</v>
       </c>
       <c r="E28">
-        <v>-0.0594633186751004</v>
+        <v>-0.007512820137814897</v>
       </c>
       <c r="F28">
-        <v>-0.04652299944960368</v>
+        <v>-0.04459886676856753</v>
       </c>
       <c r="G28">
-        <v>0.07695982687474058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1231536462069317</v>
+      </c>
+      <c r="H28">
+        <v>0.05069483402457151</v>
+      </c>
+      <c r="I28">
+        <v>-0.03182262605670851</v>
+      </c>
+      <c r="J28">
+        <v>0.2090294606787863</v>
+      </c>
+      <c r="K28">
+        <v>-0.02414871324519002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.004231968401150217</v>
+        <v>0.01481382548591428</v>
       </c>
       <c r="C29">
-        <v>-0.07395171334733507</v>
+        <v>0.08246842722069424</v>
       </c>
       <c r="D29">
-        <v>0.04838270938588976</v>
+        <v>0.05340610336681112</v>
       </c>
       <c r="E29">
-        <v>0.02419380192381318</v>
+        <v>-0.0468116823074364</v>
       </c>
       <c r="F29">
-        <v>-0.02474748075058259</v>
+        <v>-0.00695393261517126</v>
       </c>
       <c r="G29">
-        <v>-0.1127541300234627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1155850283821233</v>
+      </c>
+      <c r="H29">
+        <v>0.2871752164192232</v>
+      </c>
+      <c r="I29">
+        <v>0.02842797293229625</v>
+      </c>
+      <c r="J29">
+        <v>-0.0001873757226055002</v>
+      </c>
+      <c r="K29">
+        <v>0.1756783545294706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.01559653097045705</v>
+        <v>0.02980938061045936</v>
       </c>
       <c r="C30">
-        <v>-0.1672864096323035</v>
+        <v>0.142528006810539</v>
       </c>
       <c r="D30">
-        <v>0.07121682638412613</v>
+        <v>0.05543131323150775</v>
       </c>
       <c r="E30">
-        <v>0.03246248092554559</v>
+        <v>0.01751724643555659</v>
       </c>
       <c r="F30">
-        <v>0.04045442363891485</v>
+        <v>-0.06059079871741681</v>
       </c>
       <c r="G30">
-        <v>-0.02037191634745882</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.001722040027712763</v>
+      </c>
+      <c r="H30">
+        <v>0.03946757195043898</v>
+      </c>
+      <c r="I30">
+        <v>0.02558786651967175</v>
+      </c>
+      <c r="J30">
+        <v>-0.04192145093493072</v>
+      </c>
+      <c r="K30">
+        <v>-0.08640830944389825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.002402707262209074</v>
+        <v>0.01447304914011902</v>
       </c>
       <c r="C31">
-        <v>-0.05498436630296663</v>
+        <v>0.08085141545531985</v>
       </c>
       <c r="D31">
-        <v>0.0378383408319392</v>
+        <v>0.04105097447560105</v>
       </c>
       <c r="E31">
-        <v>-0.01932227330287919</v>
+        <v>-0.001934796968787452</v>
       </c>
       <c r="F31">
-        <v>-0.01490003078105834</v>
+        <v>0.001119718027017767</v>
       </c>
       <c r="G31">
-        <v>-0.0186961968408738</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02299242267093842</v>
+      </c>
+      <c r="H31">
+        <v>0.03093606597551094</v>
+      </c>
+      <c r="I31">
+        <v>0.0238897943716551</v>
+      </c>
+      <c r="J31">
+        <v>-0.007998988477458179</v>
+      </c>
+      <c r="K31">
+        <v>0.02392877639750166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01747420259472836</v>
+        <v>0.02172327545735404</v>
       </c>
       <c r="C32">
-        <v>-0.08517354341558141</v>
+        <v>0.05243122932010277</v>
       </c>
       <c r="D32">
-        <v>0.002541290636485448</v>
+        <v>0.02467747129815741</v>
       </c>
       <c r="E32">
-        <v>0.1442444594765409</v>
+        <v>-0.05809404521298932</v>
       </c>
       <c r="F32">
-        <v>-0.02068506884016173</v>
+        <v>-0.09915690442143106</v>
       </c>
       <c r="G32">
-        <v>-0.09385542999764607</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0602998879459018</v>
+      </c>
+      <c r="H32">
+        <v>0.1698851027749813</v>
+      </c>
+      <c r="I32">
+        <v>-0.05689431821250662</v>
+      </c>
+      <c r="J32">
+        <v>0.2647416214501355</v>
+      </c>
+      <c r="K32">
+        <v>0.02808396165455387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01545502481984247</v>
+        <v>0.01733634045383131</v>
       </c>
       <c r="C33">
-        <v>-0.08529495890521073</v>
+        <v>0.1052766854594498</v>
       </c>
       <c r="D33">
-        <v>0.06588240982531103</v>
+        <v>0.05092124999003392</v>
       </c>
       <c r="E33">
-        <v>0.005333421604443292</v>
+        <v>0.007537060748211863</v>
       </c>
       <c r="F33">
-        <v>-0.01292173841215129</v>
+        <v>-0.01291019554875733</v>
       </c>
       <c r="G33">
-        <v>-0.03951674569675109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02333158455348672</v>
+      </c>
+      <c r="H33">
+        <v>0.05267200544273783</v>
+      </c>
+      <c r="I33">
+        <v>0.01992745842779981</v>
+      </c>
+      <c r="J33">
+        <v>0.01931786363977207</v>
+      </c>
+      <c r="K33">
+        <v>-0.00310079334890017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.0003218170415840254</v>
+        <v>0.01556520871960797</v>
       </c>
       <c r="C34">
-        <v>-0.04406544593871903</v>
+        <v>0.04815675445408878</v>
       </c>
       <c r="D34">
-        <v>0.02137278045973917</v>
+        <v>0.02033786219489739</v>
       </c>
       <c r="E34">
-        <v>-0.003169579642642262</v>
+        <v>-0.00607873362107207</v>
       </c>
       <c r="F34">
-        <v>-0.0212103101638179</v>
+        <v>0.01118998121896309</v>
       </c>
       <c r="G34">
-        <v>-0.03764173709036457</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01750428265313169</v>
+      </c>
+      <c r="H34">
+        <v>0.006307657342242243</v>
+      </c>
+      <c r="I34">
+        <v>0.01831863663920475</v>
+      </c>
+      <c r="J34">
+        <v>-0.01482833220174557</v>
+      </c>
+      <c r="K34">
+        <v>0.004079479158381435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.001981634360494369</v>
+        <v>0.01031891423088969</v>
       </c>
       <c r="C35">
-        <v>-0.02511261951872045</v>
+        <v>0.04370250441972833</v>
       </c>
       <c r="D35">
-        <v>0.008294113646397774</v>
+        <v>0.02300039261678183</v>
       </c>
       <c r="E35">
-        <v>0.006262103128939551</v>
+        <v>-0.009618439228816235</v>
       </c>
       <c r="F35">
-        <v>-0.004903353913624863</v>
+        <v>-0.00716958896753947</v>
       </c>
       <c r="G35">
-        <v>-0.0350758092194733</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.0446184561318026</v>
+      </c>
+      <c r="H35">
+        <v>0.1455317645888425</v>
+      </c>
+      <c r="I35">
+        <v>0.04603282938473794</v>
+      </c>
+      <c r="J35">
+        <v>0.01495696937010907</v>
+      </c>
+      <c r="K35">
+        <v>0.1531714473396783</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.0006329827340592281</v>
+        <v>0.01590058045546527</v>
       </c>
       <c r="C36">
-        <v>-0.04600586299430751</v>
+        <v>0.04865426468306679</v>
       </c>
       <c r="D36">
-        <v>0.05574277789871581</v>
+        <v>0.04687793315278117</v>
       </c>
       <c r="E36">
-        <v>-0.0007161631111923121</v>
+        <v>0.00204886349697404</v>
       </c>
       <c r="F36">
-        <v>-0.0134454064276229</v>
+        <v>-0.006028022413423476</v>
       </c>
       <c r="G36">
-        <v>-0.02740495202406127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.003337716540066301</v>
+      </c>
+      <c r="H36">
+        <v>0.07655020237933309</v>
+      </c>
+      <c r="I36">
+        <v>0.0162930850884554</v>
+      </c>
+      <c r="J36">
+        <v>-0.01557121521283373</v>
+      </c>
+      <c r="K36">
+        <v>-0.04489411830327855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03049287953972089</v>
+        <v>0.01045308832178215</v>
       </c>
       <c r="C38">
-        <v>-0.05553759670853418</v>
+        <v>0.06074829555853046</v>
       </c>
       <c r="D38">
-        <v>0.05152890622681362</v>
+        <v>0.040752376268224</v>
       </c>
       <c r="E38">
-        <v>-0.01379847946799963</v>
+        <v>0.0332437698936591</v>
       </c>
       <c r="F38">
-        <v>0.00421873983778219</v>
+        <v>-0.01794807941704116</v>
       </c>
       <c r="G38">
-        <v>-0.03291386730939234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.001467215757963849</v>
+      </c>
+      <c r="H38">
+        <v>0.08200645799469497</v>
+      </c>
+      <c r="I38">
+        <v>-0.01371443461184408</v>
+      </c>
+      <c r="J38">
+        <v>0.05052665434420451</v>
+      </c>
+      <c r="K38">
+        <v>0.03195458679935627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.000950765646266784</v>
+        <v>0.01775040751856102</v>
       </c>
       <c r="C39">
-        <v>-0.1258935698628195</v>
+        <v>0.1288059711455437</v>
       </c>
       <c r="D39">
-        <v>0.0582719421890457</v>
+        <v>0.05792524263180904</v>
       </c>
       <c r="E39">
-        <v>-0.002287904076070318</v>
+        <v>-0.01017780886645828</v>
       </c>
       <c r="F39">
-        <v>-0.004095115445462149</v>
+        <v>0.002344547140891546</v>
       </c>
       <c r="G39">
-        <v>-0.08941721321031278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03948420404078117</v>
+      </c>
+      <c r="H39">
+        <v>0.05668442740686054</v>
+      </c>
+      <c r="I39">
+        <v>0.007553067927351942</v>
+      </c>
+      <c r="J39">
+        <v>-0.07804301429492508</v>
+      </c>
+      <c r="K39">
+        <v>-0.0316883950895535</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.002580443841944888</v>
+        <v>0.01210708478297149</v>
       </c>
       <c r="C40">
-        <v>-0.0260574738565259</v>
+        <v>0.05591743419861868</v>
       </c>
       <c r="D40">
-        <v>0.01646025753825482</v>
+        <v>0.04179054968708209</v>
       </c>
       <c r="E40">
-        <v>0.1358958195317391</v>
+        <v>-0.03478058702239604</v>
       </c>
       <c r="F40">
-        <v>0.04398933161783491</v>
+        <v>-0.03497912788088658</v>
       </c>
       <c r="G40">
-        <v>-0.08937308954279845</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.152871410113585</v>
+      </c>
+      <c r="H40">
+        <v>0.03516630430107633</v>
+      </c>
+      <c r="I40">
+        <v>0.03840725686733745</v>
+      </c>
+      <c r="J40">
+        <v>0.01814335003906343</v>
+      </c>
+      <c r="K40">
+        <v>0.2853796848950084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01275231394146561</v>
+        <v>0.02246171006984821</v>
       </c>
       <c r="C41">
-        <v>-0.02099822813609338</v>
+        <v>0.04778912165158561</v>
       </c>
       <c r="D41">
-        <v>0.009847057536620483</v>
+        <v>0.01597764023913826</v>
       </c>
       <c r="E41">
-        <v>-0.01570593582557772</v>
+        <v>0.001416082691548099</v>
       </c>
       <c r="F41">
-        <v>-0.02019117760751979</v>
+        <v>0.0224507326019374</v>
       </c>
       <c r="G41">
-        <v>0.03937579896131054</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.007896294140949172</v>
+      </c>
+      <c r="H41">
+        <v>0.02137654273056008</v>
+      </c>
+      <c r="I41">
+        <v>-0.004165820032885917</v>
+      </c>
+      <c r="J41">
+        <v>0.02696063584482415</v>
+      </c>
+      <c r="K41">
+        <v>0.04567006690916679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.003779129130987863</v>
+        <v>0.0183018201407248</v>
       </c>
       <c r="C43">
-        <v>-0.01879701330758108</v>
+        <v>0.04421690958059561</v>
       </c>
       <c r="D43">
-        <v>0.01890367628215845</v>
+        <v>0.02843198757440655</v>
       </c>
       <c r="E43">
-        <v>-0.009112877639806919</v>
+        <v>0.01137507465528376</v>
       </c>
       <c r="F43">
-        <v>0.001557917299970501</v>
+        <v>0.01061114446152256</v>
       </c>
       <c r="G43">
-        <v>-0.004246360168435975</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.0003052283447339271</v>
+      </c>
+      <c r="H43">
+        <v>0.03993124343866504</v>
+      </c>
+      <c r="I43">
+        <v>-0.000280024575670267</v>
+      </c>
+      <c r="J43">
+        <v>-0.001097047798970411</v>
+      </c>
+      <c r="K43">
+        <v>0.03541494314949551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01759752433385876</v>
+        <v>0.01458845983946351</v>
       </c>
       <c r="C44">
-        <v>-0.09525696338976432</v>
+        <v>0.09816932835747766</v>
       </c>
       <c r="D44">
-        <v>0.03790974963717197</v>
+        <v>0.05779795308538021</v>
       </c>
       <c r="E44">
-        <v>0.0362894850505954</v>
+        <v>0.03066559048555442</v>
       </c>
       <c r="F44">
-        <v>0.0280805712624456</v>
+        <v>-0.06176492209336649</v>
       </c>
       <c r="G44">
-        <v>-0.06613850228911773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04496441063151279</v>
+      </c>
+      <c r="H44">
+        <v>0.0571057660555771</v>
+      </c>
+      <c r="I44">
+        <v>0.006185521287776139</v>
+      </c>
+      <c r="J44">
+        <v>-0.04643274705285817</v>
+      </c>
+      <c r="K44">
+        <v>-0.08614379175460882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.005848150390626456</v>
+        <v>0.003815714269115427</v>
       </c>
       <c r="C46">
-        <v>-0.06293155525118042</v>
+        <v>0.06379517700313003</v>
       </c>
       <c r="D46">
-        <v>0.04765855323365053</v>
+        <v>0.03014572911376266</v>
       </c>
       <c r="E46">
-        <v>0.02197786853475232</v>
+        <v>-0.007180970299429651</v>
       </c>
       <c r="F46">
-        <v>-0.007069287965803439</v>
+        <v>0.006812223067407037</v>
       </c>
       <c r="G46">
-        <v>-0.06849868217426487</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03864109588390804</v>
+      </c>
+      <c r="H46">
+        <v>0.102089043460356</v>
+      </c>
+      <c r="I46">
+        <v>-0.006988642534573352</v>
+      </c>
+      <c r="J46">
+        <v>-0.004806179771386349</v>
+      </c>
+      <c r="K46">
+        <v>0.07344942523140241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.006371153377733426</v>
+        <v>0.02196091906732735</v>
       </c>
       <c r="C47">
-        <v>-0.06586201731391636</v>
+        <v>0.07907835037173686</v>
       </c>
       <c r="D47">
-        <v>0.04556948076583231</v>
+        <v>0.0410061975564051</v>
       </c>
       <c r="E47">
-        <v>-0.03206605575084007</v>
+        <v>-0.005235403095829378</v>
       </c>
       <c r="F47">
-        <v>-0.04903131346065737</v>
+        <v>0.01736099811997231</v>
       </c>
       <c r="G47">
-        <v>-0.04586712141967787</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.009116421255063812</v>
+      </c>
+      <c r="H47">
+        <v>0.07231418451456342</v>
+      </c>
+      <c r="I47">
+        <v>-0.0009459383592587796</v>
+      </c>
+      <c r="J47">
+        <v>0.02244363842702402</v>
+      </c>
+      <c r="K47">
+        <v>0.02738186519448314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.004533218701483055</v>
+        <v>0.02089027369802393</v>
       </c>
       <c r="C48">
-        <v>-0.05090343107140437</v>
+        <v>0.05066143843812133</v>
       </c>
       <c r="D48">
-        <v>0.05950719581836217</v>
+        <v>0.05392486719586478</v>
       </c>
       <c r="E48">
-        <v>-0.003091952873408496</v>
+        <v>0.007497304918502989</v>
       </c>
       <c r="F48">
-        <v>-0.01049055758930928</v>
+        <v>0.001040812148412682</v>
       </c>
       <c r="G48">
-        <v>-0.04131170216828503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.001277447166609135</v>
+      </c>
+      <c r="H48">
+        <v>0.09492415194272337</v>
+      </c>
+      <c r="I48">
+        <v>0.0483446033585637</v>
+      </c>
+      <c r="J48">
+        <v>-0.02567573105606178</v>
+      </c>
+      <c r="K48">
+        <v>-0.100652331936079</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.009112967273913163</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02750665700116135</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007735482001282068</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.00616126905260969</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03837141236493063</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03413102416491619</v>
+      </c>
+      <c r="H49">
+        <v>-0.02343815709137726</v>
+      </c>
+      <c r="I49">
+        <v>0.04550003544703567</v>
+      </c>
+      <c r="J49">
+        <v>-0.03863943285197573</v>
+      </c>
+      <c r="K49">
+        <v>-0.02114782407090383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.0005446021255604502</v>
+        <v>0.01478690900718786</v>
       </c>
       <c r="C50">
-        <v>-0.06635225193268701</v>
+        <v>0.07946597541442212</v>
       </c>
       <c r="D50">
-        <v>0.03490521951916095</v>
+        <v>0.02963876681716241</v>
       </c>
       <c r="E50">
-        <v>-0.004618870614750841</v>
+        <v>0.008662819923880046</v>
       </c>
       <c r="F50">
-        <v>-0.000185612198753182</v>
+        <v>-0.006484950254366677</v>
       </c>
       <c r="G50">
-        <v>-0.03245188660079765</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006970242417735331</v>
+      </c>
+      <c r="H50">
+        <v>0.05341104792566922</v>
+      </c>
+      <c r="I50">
+        <v>0.01339089188963357</v>
+      </c>
+      <c r="J50">
+        <v>0.04484036887364949</v>
+      </c>
+      <c r="K50">
+        <v>0.0135394934099063</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.001715128897366065</v>
+        <v>-0.006172123595619732</v>
       </c>
       <c r="C51">
-        <v>-0.07305954455343769</v>
+        <v>0.0363838129841739</v>
       </c>
       <c r="D51">
-        <v>0.023584232963272</v>
+        <v>0.01901467232507055</v>
       </c>
       <c r="E51">
-        <v>0.04116581071148783</v>
+        <v>-0.006470342425429951</v>
       </c>
       <c r="F51">
-        <v>0.01490985499897282</v>
+        <v>-0.0288599662698431</v>
       </c>
       <c r="G51">
-        <v>-0.0496408885025482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02521737266288214</v>
+      </c>
+      <c r="H51">
+        <v>0.1039144192987617</v>
+      </c>
+      <c r="I51">
+        <v>0.02979548426759783</v>
+      </c>
+      <c r="J51">
+        <v>-0.004349019508143231</v>
+      </c>
+      <c r="K51">
+        <v>-0.1049878752689787</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03579125056523883</v>
+        <v>0.05756213166459697</v>
       </c>
       <c r="C53">
-        <v>-0.1233613376943693</v>
+        <v>0.1314756195778264</v>
       </c>
       <c r="D53">
-        <v>0.08404295969785112</v>
+        <v>0.05833436606120938</v>
       </c>
       <c r="E53">
-        <v>-0.1304171987398029</v>
+        <v>-0.01645037745339286</v>
       </c>
       <c r="F53">
-        <v>-0.05251511268678543</v>
+        <v>0.07337136611171716</v>
       </c>
       <c r="G53">
-        <v>0.05325032278797768</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.08128940596691912</v>
+      </c>
+      <c r="H53">
+        <v>-0.03339751925371381</v>
+      </c>
+      <c r="I53">
+        <v>0.005741508555289527</v>
+      </c>
+      <c r="J53">
+        <v>0.03329920178330321</v>
+      </c>
+      <c r="K53">
+        <v>0.01023286377566292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.002636316581185797</v>
+        <v>0.01744941270426721</v>
       </c>
       <c r="C54">
-        <v>-0.06392801853429783</v>
+        <v>0.07464920873090052</v>
       </c>
       <c r="D54">
-        <v>0.008331011764172218</v>
+        <v>0.01238605674245408</v>
       </c>
       <c r="E54">
-        <v>-0.02677594767801073</v>
+        <v>-0.005204632608082739</v>
       </c>
       <c r="F54">
-        <v>0.006680376487861885</v>
+        <v>0.01786772977062728</v>
       </c>
       <c r="G54">
-        <v>-0.02082262278773401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0220503683535597</v>
+      </c>
+      <c r="H54">
+        <v>0.04456714808257584</v>
+      </c>
+      <c r="I54">
+        <v>0.03754040729723828</v>
+      </c>
+      <c r="J54">
+        <v>-0.02026796526622782</v>
+      </c>
+      <c r="K54">
+        <v>-0.002622186416169852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01840064915610409</v>
+        <v>0.03098917199556029</v>
       </c>
       <c r="C55">
-        <v>-0.07806734029047314</v>
+        <v>0.08407753184847382</v>
       </c>
       <c r="D55">
-        <v>0.07261312181018838</v>
+        <v>0.05562750152251614</v>
       </c>
       <c r="E55">
-        <v>-0.05993269783272043</v>
+        <v>-0.007469838115107795</v>
       </c>
       <c r="F55">
-        <v>-0.04019781845629256</v>
+        <v>0.05247729389763175</v>
       </c>
       <c r="G55">
-        <v>0.01030391657855638</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03739419921436161</v>
+      </c>
+      <c r="H55">
+        <v>-0.02127225000575786</v>
+      </c>
+      <c r="I55">
+        <v>0.01461338609518449</v>
+      </c>
+      <c r="J55">
+        <v>-0.01122119402141608</v>
+      </c>
+      <c r="K55">
+        <v>0.003407169442073447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01925164480292411</v>
+        <v>0.04545427755500051</v>
       </c>
       <c r="C56">
-        <v>-0.153531068391377</v>
+        <v>0.150160835047659</v>
       </c>
       <c r="D56">
-        <v>0.08337440061859597</v>
+        <v>0.08250296980267249</v>
       </c>
       <c r="E56">
-        <v>-0.1158302355244411</v>
+        <v>-0.04680850088906866</v>
       </c>
       <c r="F56">
-        <v>-0.07820104431863813</v>
+        <v>0.09785660360645894</v>
       </c>
       <c r="G56">
-        <v>0.1099000385668384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1627444199098797</v>
+      </c>
+      <c r="H56">
+        <v>-0.04984130823682944</v>
+      </c>
+      <c r="I56">
+        <v>0.02479687231340283</v>
+      </c>
+      <c r="J56">
+        <v>0.01569588203914568</v>
+      </c>
+      <c r="K56">
+        <v>-0.01637835019532028</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02202167851915097</v>
+        <v>0.02070224085144889</v>
       </c>
       <c r="C58">
-        <v>-0.2985748377993865</v>
+        <v>0.1835996280768825</v>
       </c>
       <c r="D58">
-        <v>-0.009529442717964881</v>
+        <v>0.03930366122118582</v>
       </c>
       <c r="E58">
-        <v>0.1826434977179501</v>
+        <v>0.0472807963919365</v>
       </c>
       <c r="F58">
-        <v>0.2442860781310125</v>
+        <v>-0.3135369924070804</v>
       </c>
       <c r="G58">
-        <v>0.07949335110684771</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.09140233432381528</v>
+      </c>
+      <c r="H58">
+        <v>0.06527589412046939</v>
+      </c>
+      <c r="I58">
+        <v>-0.01961504108123894</v>
+      </c>
+      <c r="J58">
+        <v>0.05309750228951293</v>
+      </c>
+      <c r="K58">
+        <v>-0.3617724170582958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2841272770412783</v>
+        <v>0.2894408098698673</v>
       </c>
       <c r="C59">
-        <v>-0.0008533825103446376</v>
+        <v>-0.04427490762361246</v>
       </c>
       <c r="D59">
-        <v>-0.01370289888591381</v>
+        <v>-0.004640898295376408</v>
       </c>
       <c r="E59">
-        <v>0.05326894951831585</v>
+        <v>-0.01748063116609706</v>
       </c>
       <c r="F59">
-        <v>-0.04983408120854727</v>
+        <v>-0.04574653883157335</v>
       </c>
       <c r="G59">
-        <v>-0.0009738069233375463</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.00224203720009434</v>
+      </c>
+      <c r="H59">
+        <v>-0.01949042006352122</v>
+      </c>
+      <c r="I59">
+        <v>-0.02146968587696968</v>
+      </c>
+      <c r="J59">
+        <v>0.02406946433713879</v>
+      </c>
+      <c r="K59">
+        <v>0.02771938281056117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1066736837795897</v>
+        <v>0.1447395892097408</v>
       </c>
       <c r="C60">
-        <v>-0.1356160216546268</v>
+        <v>0.1509654985513343</v>
       </c>
       <c r="D60">
-        <v>0.08656857828091284</v>
+        <v>0.04831472617902564</v>
       </c>
       <c r="E60">
-        <v>-0.06685349728450106</v>
+        <v>-0.04173389083173429</v>
       </c>
       <c r="F60">
-        <v>-0.1351317444572554</v>
+        <v>0.1130229363718668</v>
       </c>
       <c r="G60">
-        <v>-0.2516168710875098</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2584208309422766</v>
+      </c>
+      <c r="H60">
+        <v>-0.2284930022964029</v>
+      </c>
+      <c r="I60">
+        <v>-0.0436768931217432</v>
+      </c>
+      <c r="J60">
+        <v>-0.02938935181104511</v>
+      </c>
+      <c r="K60">
+        <v>-0.04419127901671395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.0004514968227353559</v>
+        <v>0.02058720911181485</v>
       </c>
       <c r="C61">
-        <v>-0.07865661175835652</v>
+        <v>0.09680889873887751</v>
       </c>
       <c r="D61">
-        <v>0.0641310235950608</v>
+        <v>0.05445682091431984</v>
       </c>
       <c r="E61">
-        <v>-0.03078123642969364</v>
+        <v>-0.01032848278385766</v>
       </c>
       <c r="F61">
-        <v>-0.02422895015795165</v>
+        <v>0.02959484481209383</v>
       </c>
       <c r="G61">
-        <v>-0.07985110223653315</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.027408029106411</v>
+      </c>
+      <c r="H61">
+        <v>0.05786437048017421</v>
+      </c>
+      <c r="I61">
+        <v>0.03336929472531316</v>
+      </c>
+      <c r="J61">
+        <v>-0.02527828541135054</v>
+      </c>
+      <c r="K61">
+        <v>0.01594256247444261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002915549960964743</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01305736634178285</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003303512914975225</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.009304546140808384</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01595573156293888</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02006806697640375</v>
+      </c>
+      <c r="H62">
+        <v>0.0002749502835797347</v>
+      </c>
+      <c r="I62">
+        <v>0.05598042680495029</v>
+      </c>
+      <c r="J62">
+        <v>0.02109523778784319</v>
+      </c>
+      <c r="K62">
+        <v>0.006375607337627377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.004024874353030298</v>
+        <v>0.02647372990920468</v>
       </c>
       <c r="C63">
-        <v>-0.05702254825315003</v>
+        <v>0.06688060000265406</v>
       </c>
       <c r="D63">
-        <v>0.04396989082077484</v>
+        <v>0.05948284333674338</v>
       </c>
       <c r="E63">
-        <v>-0.0318165777977835</v>
+        <v>-0.00628087620466109</v>
       </c>
       <c r="F63">
-        <v>-0.0009837719913850114</v>
+        <v>0.01692411037508338</v>
       </c>
       <c r="G63">
-        <v>-0.02837198278489652</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.001129666827166574</v>
+      </c>
+      <c r="H63">
+        <v>0.05573282561598598</v>
+      </c>
+      <c r="I63">
+        <v>0.03785158712039486</v>
+      </c>
+      <c r="J63">
+        <v>-0.01190573523277568</v>
+      </c>
+      <c r="K63">
+        <v>0.009249076583032716</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.005657644284199377</v>
+        <v>0.01373428708619834</v>
       </c>
       <c r="C64">
-        <v>-0.07492213196778763</v>
+        <v>0.09130601252273794</v>
       </c>
       <c r="D64">
-        <v>0.07281450829892809</v>
+        <v>0.03333265843830428</v>
       </c>
       <c r="E64">
-        <v>0.005994890900933411</v>
+        <v>0.02549790072411923</v>
       </c>
       <c r="F64">
-        <v>0.00821916021928191</v>
+        <v>-0.02837844927426164</v>
       </c>
       <c r="G64">
-        <v>-0.066204672710257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07038580460108673</v>
+      </c>
+      <c r="H64">
+        <v>0.05129766594473838</v>
+      </c>
+      <c r="I64">
+        <v>0.03135797381340039</v>
+      </c>
+      <c r="J64">
+        <v>-0.04347459076254146</v>
+      </c>
+      <c r="K64">
+        <v>0.01526765110027149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.005992036393362931</v>
+        <v>0.03015738977298716</v>
       </c>
       <c r="C65">
-        <v>-0.07924301414469476</v>
+        <v>0.09575542242910691</v>
       </c>
       <c r="D65">
-        <v>0.04028841702605654</v>
+        <v>0.0209864402805198</v>
       </c>
       <c r="E65">
-        <v>0.03607423941454762</v>
+        <v>0.01376718030005828</v>
       </c>
       <c r="F65">
-        <v>0.009238927308419595</v>
+        <v>-0.002260379147575865</v>
       </c>
       <c r="G65">
-        <v>-0.03055425930208517</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.08635113631420911</v>
+      </c>
+      <c r="H65">
+        <v>0.009734083719469046</v>
+      </c>
+      <c r="I65">
+        <v>-0.02894051090388376</v>
+      </c>
+      <c r="J65">
+        <v>-0.09209041655802384</v>
+      </c>
+      <c r="K65">
+        <v>-0.09342952233114428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.004542341155253527</v>
+        <v>0.01395408970545895</v>
       </c>
       <c r="C66">
-        <v>-0.1678664507920078</v>
+        <v>0.1662761943630738</v>
       </c>
       <c r="D66">
-        <v>0.04595439474877205</v>
+        <v>0.04876881512822366</v>
       </c>
       <c r="E66">
-        <v>0.03460663754961657</v>
+        <v>-0.01605875243619086</v>
       </c>
       <c r="F66">
-        <v>-0.02211981561082718</v>
+        <v>-0.01063764667880944</v>
       </c>
       <c r="G66">
-        <v>-0.1065589358092902</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02610508502575618</v>
+      </c>
+      <c r="H66">
+        <v>0.06487834698606887</v>
+      </c>
+      <c r="I66">
+        <v>0.02893725748322227</v>
+      </c>
+      <c r="J66">
+        <v>-0.05003518365061409</v>
+      </c>
+      <c r="K66">
+        <v>-0.02185884215517789</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02988239533123745</v>
+        <v>0.01890565987877879</v>
       </c>
       <c r="C67">
-        <v>-0.02841539935357458</v>
+        <v>0.05059991560698705</v>
       </c>
       <c r="D67">
-        <v>0.06746082953249101</v>
+        <v>0.04302286892819485</v>
       </c>
       <c r="E67">
-        <v>-0.04523605168750599</v>
+        <v>0.02829321813653483</v>
       </c>
       <c r="F67">
-        <v>-0.00276402663135999</v>
+        <v>0.01768557644246018</v>
       </c>
       <c r="G67">
-        <v>-0.0365797012310347</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02694419219160681</v>
+      </c>
+      <c r="H67">
+        <v>0.05782797114170622</v>
+      </c>
+      <c r="I67">
+        <v>-0.02706893320020205</v>
+      </c>
+      <c r="J67">
+        <v>0.03976214037281135</v>
+      </c>
+      <c r="K67">
+        <v>0.04422610285991185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2952021353110704</v>
+        <v>0.2954109308747075</v>
       </c>
       <c r="C68">
-        <v>0.03007140559881374</v>
+        <v>-0.06763244307199866</v>
       </c>
       <c r="D68">
-        <v>-0.000226624341042369</v>
+        <v>-0.02340782284151834</v>
       </c>
       <c r="E68">
-        <v>0.0287756932475055</v>
+        <v>-0.00665172109803082</v>
       </c>
       <c r="F68">
-        <v>-0.006637905370728845</v>
+        <v>-0.03911616705227359</v>
       </c>
       <c r="G68">
-        <v>-0.002191396797509778</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01817009269238657</v>
+      </c>
+      <c r="H68">
+        <v>0.0181050411555069</v>
+      </c>
+      <c r="I68">
+        <v>0.05964592876034893</v>
+      </c>
+      <c r="J68">
+        <v>0.05143253272636131</v>
+      </c>
+      <c r="K68">
+        <v>-0.002016395504683184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.009275521421326751</v>
+        <v>0.008393977037892514</v>
       </c>
       <c r="C69">
-        <v>-0.04234124732988929</v>
+        <v>0.0481983220667953</v>
       </c>
       <c r="D69">
-        <v>0.06139084965728229</v>
+        <v>0.02231665564163523</v>
       </c>
       <c r="E69">
-        <v>-0.02380678952550741</v>
+        <v>-0.00344292934330768</v>
       </c>
       <c r="F69">
-        <v>-0.005578199187211836</v>
+        <v>0.01499382030221463</v>
       </c>
       <c r="G69">
-        <v>-0.01716837393973434</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02320612637548805</v>
+      </c>
+      <c r="H69">
+        <v>0.03891325601376647</v>
+      </c>
+      <c r="I69">
+        <v>0.002169924741971522</v>
+      </c>
+      <c r="J69">
+        <v>0.02516026040475233</v>
+      </c>
+      <c r="K69">
+        <v>0.002670518124547252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2836644873401408</v>
+        <v>0.2775296386526746</v>
       </c>
       <c r="C71">
-        <v>0.03866115996235953</v>
+        <v>-0.07285151396258698</v>
       </c>
       <c r="D71">
-        <v>-0.00945384477143049</v>
+        <v>-0.02238230495034212</v>
       </c>
       <c r="E71">
-        <v>0.01980633014684634</v>
+        <v>0.01550385294271737</v>
       </c>
       <c r="F71">
-        <v>0.01207588554226455</v>
+        <v>-0.06016979271248729</v>
       </c>
       <c r="G71">
-        <v>-0.01265852664675351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02557385673500231</v>
+      </c>
+      <c r="H71">
+        <v>0.04982653516905595</v>
+      </c>
+      <c r="I71">
+        <v>0.008649162785760431</v>
+      </c>
+      <c r="J71">
+        <v>0.1228690851082319</v>
+      </c>
+      <c r="K71">
+        <v>-0.033944018224787</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01866412309422545</v>
+        <v>0.05473372567768341</v>
       </c>
       <c r="C72">
-        <v>-0.150819398463414</v>
+        <v>0.1423536853647951</v>
       </c>
       <c r="D72">
-        <v>0.07336155740363878</v>
+        <v>0.05212978674054734</v>
       </c>
       <c r="E72">
-        <v>-0.0004553185871851271</v>
+        <v>-0.02085776458387962</v>
       </c>
       <c r="F72">
-        <v>0.05218522374630331</v>
+        <v>0.04335504114457858</v>
       </c>
       <c r="G72">
-        <v>-0.1110600021760015</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.009498200514800034</v>
+      </c>
+      <c r="H72">
+        <v>0.0238671918260052</v>
+      </c>
+      <c r="I72">
+        <v>0.04138998974095625</v>
+      </c>
+      <c r="J72">
+        <v>-0.1153172400337192</v>
+      </c>
+      <c r="K72">
+        <v>-0.05591697153061276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07034947127474135</v>
+        <v>0.1488582557896434</v>
       </c>
       <c r="C73">
-        <v>-0.1021625098749809</v>
+        <v>0.1956466747066467</v>
       </c>
       <c r="D73">
-        <v>0.1186470478904533</v>
+        <v>0.08808154682131104</v>
       </c>
       <c r="E73">
-        <v>-0.1692391167242086</v>
+        <v>-0.02199811829049218</v>
       </c>
       <c r="F73">
-        <v>-0.1506378168816278</v>
+        <v>0.2354131178166151</v>
       </c>
       <c r="G73">
-        <v>-0.3395794080548117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.3908972404944862</v>
+      </c>
+      <c r="H73">
+        <v>-0.2861578881037262</v>
+      </c>
+      <c r="I73">
+        <v>-0.0952408886405203</v>
+      </c>
+      <c r="J73">
+        <v>0.07686627938582784</v>
+      </c>
+      <c r="K73">
+        <v>-0.07954327538599355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.008713014995910809</v>
+        <v>0.03848316302401667</v>
       </c>
       <c r="C74">
-        <v>-0.08222347898004667</v>
+        <v>0.09999456498918777</v>
       </c>
       <c r="D74">
-        <v>0.08261821568741404</v>
+        <v>0.04774812115167529</v>
       </c>
       <c r="E74">
-        <v>-0.07717782144842049</v>
+        <v>0.009148139897218159</v>
       </c>
       <c r="F74">
-        <v>-0.04596412468605637</v>
+        <v>0.03833720170192072</v>
       </c>
       <c r="G74">
-        <v>0.03402596616019057</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.04341821699813723</v>
+      </c>
+      <c r="H74">
+        <v>-0.01012386243734311</v>
+      </c>
+      <c r="I74">
+        <v>0.03999788591605354</v>
+      </c>
+      <c r="J74">
+        <v>0.007818397722478566</v>
+      </c>
+      <c r="K74">
+        <v>-0.03516652113029789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.0463740797779613</v>
+        <v>0.06417333999120653</v>
       </c>
       <c r="C75">
-        <v>-0.1393192099261455</v>
+        <v>0.1666918558187467</v>
       </c>
       <c r="D75">
-        <v>0.1058009475185149</v>
+        <v>0.08632044167532806</v>
       </c>
       <c r="E75">
-        <v>-0.168712312921254</v>
+        <v>0.03798398956500474</v>
       </c>
       <c r="F75">
-        <v>-0.03659939110448475</v>
+        <v>0.1217200902021934</v>
       </c>
       <c r="G75">
-        <v>0.1879752297851363</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.2269904112095434</v>
+      </c>
+      <c r="H75">
+        <v>-0.04320611727537672</v>
+      </c>
+      <c r="I75">
+        <v>0.01356107073991895</v>
+      </c>
+      <c r="J75">
+        <v>0.118938108163911</v>
+      </c>
+      <c r="K75">
+        <v>0.1015576520196428</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01560287175582191</v>
+        <v>0.04099882228425495</v>
       </c>
       <c r="C76">
-        <v>-0.09907508893423889</v>
+        <v>0.1217377329897521</v>
       </c>
       <c r="D76">
-        <v>0.07947533611542706</v>
+        <v>0.07462247454256568</v>
       </c>
       <c r="E76">
-        <v>-0.08699109521232309</v>
+        <v>-0.01229603169909818</v>
       </c>
       <c r="F76">
-        <v>-0.06284749841336974</v>
+        <v>0.08721469588355521</v>
       </c>
       <c r="G76">
-        <v>0.04453049263201335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.07606015658402153</v>
+      </c>
+      <c r="H76">
+        <v>-0.02407486078554153</v>
+      </c>
+      <c r="I76">
+        <v>0.05293280249814854</v>
+      </c>
+      <c r="J76">
+        <v>-0.01690216874431117</v>
+      </c>
+      <c r="K76">
+        <v>0.02857829130277203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09541156822644732</v>
+        <v>0.05252624029235475</v>
       </c>
       <c r="C77">
-        <v>-0.3884817556825161</v>
+        <v>0.4005404410645826</v>
       </c>
       <c r="D77">
-        <v>-0.8177710297320325</v>
+        <v>-0.8990847868888296</v>
       </c>
       <c r="E77">
-        <v>-0.3362434337367113</v>
+        <v>0.0262366737697386</v>
       </c>
       <c r="F77">
-        <v>-0.05871251238971667</v>
+        <v>0.09229753391594721</v>
       </c>
       <c r="G77">
-        <v>-0.04512681090507645</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02936242156206866</v>
+      </c>
+      <c r="H77">
+        <v>0.04165412828762154</v>
+      </c>
+      <c r="I77">
+        <v>0.05340428863990065</v>
+      </c>
+      <c r="J77">
+        <v>0.01199098146234504</v>
+      </c>
+      <c r="K77">
+        <v>0.004550477983946102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02021195117584845</v>
+        <v>0.03396415078705663</v>
       </c>
       <c r="C78">
-        <v>-0.1303807453807773</v>
+        <v>0.1152493229607832</v>
       </c>
       <c r="D78">
-        <v>0.1356221939676867</v>
+        <v>0.09322484699033166</v>
       </c>
       <c r="E78">
-        <v>0.06031811660260914</v>
+        <v>-0.03953881580328227</v>
       </c>
       <c r="F78">
-        <v>-0.1002092465582612</v>
+        <v>-0.002977555098316344</v>
       </c>
       <c r="G78">
-        <v>0.03981260993488497</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.1123490506600858</v>
+      </c>
+      <c r="H78">
+        <v>0.06923919242711545</v>
+      </c>
+      <c r="I78">
+        <v>-0.02440117866118926</v>
+      </c>
+      <c r="J78">
+        <v>-0.06701559365137419</v>
+      </c>
+      <c r="K78">
+        <v>-0.436196855870937</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02724954511338655</v>
+        <v>0.05487359513417136</v>
       </c>
       <c r="C79">
-        <v>-0.1635871294669874</v>
+        <v>0.1434723784906399</v>
       </c>
       <c r="D79">
-        <v>0.1357224977209344</v>
+        <v>0.07153073471064161</v>
       </c>
       <c r="E79">
-        <v>-0.1182567911620077</v>
+        <v>-0.01534135449570521</v>
       </c>
       <c r="F79">
-        <v>-0.09465333558434925</v>
+        <v>0.0707711499293735</v>
       </c>
       <c r="G79">
-        <v>0.222039236511642</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2372250988623918</v>
+      </c>
+      <c r="H79">
+        <v>-0.008964487258027445</v>
+      </c>
+      <c r="I79">
+        <v>0.03242389738659244</v>
+      </c>
+      <c r="J79">
+        <v>0.08035003119487982</v>
+      </c>
+      <c r="K79">
+        <v>-0.04521354626128649</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.009977405709715448</v>
+        <v>0.02086409112963259</v>
       </c>
       <c r="C80">
-        <v>-0.04265471626664586</v>
+        <v>0.04785902581256984</v>
       </c>
       <c r="D80">
-        <v>0.04769696406061767</v>
+        <v>0.03740191380825808</v>
       </c>
       <c r="E80">
-        <v>0.0155199713525975</v>
+        <v>-0.04433345621982444</v>
       </c>
       <c r="F80">
-        <v>-0.02241666378770528</v>
+        <v>-0.02707829681631943</v>
       </c>
       <c r="G80">
-        <v>0.01500174796075547</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0673434088962402</v>
+      </c>
+      <c r="H80">
+        <v>-0.02247230551758643</v>
+      </c>
+      <c r="I80">
+        <v>-0.04761183362086303</v>
+      </c>
+      <c r="J80">
+        <v>0.02725085447499708</v>
+      </c>
+      <c r="K80">
+        <v>0.06447297238415267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.00701460126503886</v>
+        <v>0.01792897569459635</v>
       </c>
       <c r="C81">
-        <v>-0.0669038554975355</v>
+        <v>0.0993534476583658</v>
       </c>
       <c r="D81">
-        <v>0.08600152273506666</v>
+        <v>0.05647212087292289</v>
       </c>
       <c r="E81">
-        <v>-0.08916641000453319</v>
+        <v>-0.01372257232021337</v>
       </c>
       <c r="F81">
-        <v>-0.05894660706292944</v>
+        <v>0.0523222564581997</v>
       </c>
       <c r="G81">
-        <v>0.07492403311557669</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1113949220919686</v>
+      </c>
+      <c r="H81">
+        <v>0.03538280404674846</v>
+      </c>
+      <c r="I81">
+        <v>0.02652764457811382</v>
+      </c>
+      <c r="J81">
+        <v>0.05518979319713006</v>
+      </c>
+      <c r="K81">
+        <v>0.02250765907626616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01994412016999816</v>
+        <v>0.04407604329857948</v>
       </c>
       <c r="C82">
-        <v>-0.07397310527750428</v>
+        <v>0.1010250910658702</v>
       </c>
       <c r="D82">
-        <v>0.08533976886473917</v>
+        <v>0.06692786924135068</v>
       </c>
       <c r="E82">
-        <v>-0.1032482660877049</v>
+        <v>-0.01872720060323509</v>
       </c>
       <c r="F82">
-        <v>-0.05280179953697674</v>
+        <v>0.0743726955423151</v>
       </c>
       <c r="G82">
-        <v>0.03750905474712843</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.08724151876464872</v>
+      </c>
+      <c r="H82">
+        <v>-0.001637262109740881</v>
+      </c>
+      <c r="I82">
+        <v>0.02412019202023542</v>
+      </c>
+      <c r="J82">
+        <v>0.01034385966655105</v>
+      </c>
+      <c r="K82">
+        <v>0.003343654454300228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.0003967995791309763</v>
+        <v>-0.001659842700895886</v>
       </c>
       <c r="C83">
-        <v>-0.03116805355112804</v>
+        <v>-0.02245110183005288</v>
       </c>
       <c r="D83">
-        <v>-0.1618929487178181</v>
+        <v>-0.06028860627956201</v>
       </c>
       <c r="E83">
-        <v>0.4925298708803024</v>
+        <v>-0.9530575650729283</v>
       </c>
       <c r="F83">
-        <v>-0.7723247728727471</v>
+        <v>-0.1318589059715614</v>
       </c>
       <c r="G83">
-        <v>0.1373743233571224</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04112366139370981</v>
+      </c>
+      <c r="H83">
+        <v>-0.07339904006283414</v>
+      </c>
+      <c r="I83">
+        <v>-0.01712225346128732</v>
+      </c>
+      <c r="J83">
+        <v>-0.07456974510468509</v>
+      </c>
+      <c r="K83">
+        <v>-0.02470119335284371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.008274021114054999</v>
+        <v>-0.001929870772316599</v>
       </c>
       <c r="C84">
-        <v>-0.07557678755558025</v>
+        <v>0.04589766864564073</v>
       </c>
       <c r="D84">
-        <v>0.041155834840797</v>
+        <v>0.06542874350462113</v>
       </c>
       <c r="E84">
-        <v>0.08084484604149494</v>
+        <v>0.02678848523883652</v>
       </c>
       <c r="F84">
-        <v>0.1382627213335612</v>
+        <v>-0.09486012307842534</v>
       </c>
       <c r="G84">
-        <v>0.01762394250962972</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.04168682407803751</v>
+      </c>
+      <c r="H84">
+        <v>0.08060505081829834</v>
+      </c>
+      <c r="I84">
+        <v>0.08439572093702705</v>
+      </c>
+      <c r="J84">
+        <v>-0.1162398100993415</v>
+      </c>
+      <c r="K84">
+        <v>0.06589979901458826</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.009114017425796889</v>
+        <v>0.02921347898817383</v>
       </c>
       <c r="C85">
-        <v>-0.1194367835066702</v>
+        <v>0.1167470504384814</v>
       </c>
       <c r="D85">
-        <v>0.1049265666949748</v>
+        <v>0.08161868790582666</v>
       </c>
       <c r="E85">
-        <v>-0.1176983042041794</v>
+        <v>-0.01834521731176736</v>
       </c>
       <c r="F85">
-        <v>-0.0908290256260936</v>
+        <v>0.1345103314160421</v>
       </c>
       <c r="G85">
-        <v>0.1668054625760183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.2166446889648344</v>
+      </c>
+      <c r="H85">
+        <v>-0.05682659418015346</v>
+      </c>
+      <c r="I85">
+        <v>0.08027911046528767</v>
+      </c>
+      <c r="J85">
+        <v>0.07926756195420731</v>
+      </c>
+      <c r="K85">
+        <v>0.04744186050821228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01850300370704037</v>
+        <v>0.01684348759394395</v>
       </c>
       <c r="C86">
-        <v>-0.07552729555499858</v>
+        <v>0.08355816082472871</v>
       </c>
       <c r="D86">
-        <v>-0.0161802622451546</v>
+        <v>0.02961899275972354</v>
       </c>
       <c r="E86">
-        <v>0.008058871725247147</v>
+        <v>0.007859059752421306</v>
       </c>
       <c r="F86">
-        <v>0.0391433858889246</v>
+        <v>-0.07546233880924848</v>
       </c>
       <c r="G86">
-        <v>-0.08209769741181003</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05664299351623643</v>
+      </c>
+      <c r="H86">
+        <v>0.01893318864589505</v>
+      </c>
+      <c r="I86">
+        <v>-0.137285410968328</v>
+      </c>
+      <c r="J86">
+        <v>0.1202816545746247</v>
+      </c>
+      <c r="K86">
+        <v>-0.1692097911124796</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02268382450612425</v>
+        <v>0.02592241200999125</v>
       </c>
       <c r="C87">
-        <v>-0.149178927376799</v>
+        <v>0.119434837501994</v>
       </c>
       <c r="D87">
-        <v>0.0399450239207489</v>
+        <v>0.0229968780193196</v>
       </c>
       <c r="E87">
-        <v>0.09871303040634431</v>
+        <v>0.001678568647511379</v>
       </c>
       <c r="F87">
-        <v>0.03811152651050902</v>
+        <v>-0.05932622339439209</v>
       </c>
       <c r="G87">
-        <v>-0.0139946738101354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.005339475461347443</v>
+      </c>
+      <c r="H87">
+        <v>0.03033545151652912</v>
+      </c>
+      <c r="I87">
+        <v>0.09286291835291051</v>
+      </c>
+      <c r="J87">
+        <v>-0.06295709023761448</v>
+      </c>
+      <c r="K87">
+        <v>-0.04723285912527053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.008335256815123615</v>
+        <v>0.03890743750406031</v>
       </c>
       <c r="C88">
-        <v>-0.03242386964906706</v>
+        <v>0.06297195271883683</v>
       </c>
       <c r="D88">
-        <v>0.04957575913886059</v>
+        <v>0.0395994433222541</v>
       </c>
       <c r="E88">
-        <v>-0.05193436982917442</v>
+        <v>0.008205989677004122</v>
       </c>
       <c r="F88">
-        <v>-0.008372545384136509</v>
+        <v>0.02287541181518991</v>
       </c>
       <c r="G88">
-        <v>0.003726875816868461</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02475966878631888</v>
+      </c>
+      <c r="H88">
+        <v>-0.004450150867499517</v>
+      </c>
+      <c r="I88">
+        <v>0.001015626675471954</v>
+      </c>
+      <c r="J88">
+        <v>0.00488699861285129</v>
+      </c>
+      <c r="K88">
+        <v>0.06825331222622355</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3985695027484453</v>
+        <v>0.3912781212501817</v>
       </c>
       <c r="C89">
-        <v>0.06818458425794886</v>
+        <v>-0.1146099309128254</v>
       </c>
       <c r="D89">
-        <v>0.07903842878349773</v>
+        <v>-0.03355118696564525</v>
       </c>
       <c r="E89">
-        <v>0.09406592280158456</v>
+        <v>0.04291224082312167</v>
       </c>
       <c r="F89">
-        <v>0.08710521455000154</v>
+        <v>-0.05769027784550795</v>
       </c>
       <c r="G89">
-        <v>0.03865626832521089</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04059386418642763</v>
+      </c>
+      <c r="H89">
+        <v>0.02669775150825077</v>
+      </c>
+      <c r="I89">
+        <v>0.08501139905661448</v>
+      </c>
+      <c r="J89">
+        <v>-0.731743495909581</v>
+      </c>
+      <c r="K89">
+        <v>0.008498378602356136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3109530761562142</v>
+        <v>0.3166506490921437</v>
       </c>
       <c r="C90">
-        <v>0.02281666098168492</v>
+        <v>-0.07349443927347234</v>
       </c>
       <c r="D90">
-        <v>-0.008675325444225486</v>
+        <v>-0.0192237539984403</v>
       </c>
       <c r="E90">
-        <v>0.06847877961126896</v>
+        <v>-0.005548613527023047</v>
       </c>
       <c r="F90">
-        <v>-0.0447856946678728</v>
+        <v>-0.03957205153089018</v>
       </c>
       <c r="G90">
-        <v>-0.03128276918223012</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.006228332590169089</v>
+      </c>
+      <c r="H90">
+        <v>0.02141613660292313</v>
+      </c>
+      <c r="I90">
+        <v>-0.0009221942367330241</v>
+      </c>
+      <c r="J90">
+        <v>0.09026518047145343</v>
+      </c>
+      <c r="K90">
+        <v>-0.005575388621395695</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02281185280184993</v>
+        <v>0.0537638205817533</v>
       </c>
       <c r="C91">
-        <v>-0.07544992037571964</v>
+        <v>0.08437748079442695</v>
       </c>
       <c r="D91">
-        <v>0.0767788679362965</v>
+        <v>0.05058056710986071</v>
       </c>
       <c r="E91">
-        <v>-0.06370448141196386</v>
+        <v>-0.04089002091381179</v>
       </c>
       <c r="F91">
-        <v>-0.06089410937061769</v>
+        <v>0.05868659445066345</v>
       </c>
       <c r="G91">
-        <v>0.07544215543676103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07890403175228557</v>
+      </c>
+      <c r="H91">
+        <v>-0.03771146808091411</v>
+      </c>
+      <c r="I91">
+        <v>0.00583553855278681</v>
+      </c>
+      <c r="J91">
+        <v>-0.001959882426803944</v>
+      </c>
+      <c r="K91">
+        <v>0.06112545571847387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3805924586721401</v>
+        <v>0.3534603421131502</v>
       </c>
       <c r="C92">
-        <v>0.06062491512936626</v>
+        <v>-0.119668376436035</v>
       </c>
       <c r="D92">
-        <v>-0.01620790151444168</v>
+        <v>-0.05284637070480771</v>
       </c>
       <c r="E92">
-        <v>-0.01406290779487442</v>
+        <v>0.04090276697103795</v>
       </c>
       <c r="F92">
-        <v>0.1106004786779552</v>
+        <v>-0.04874676319354678</v>
       </c>
       <c r="G92">
-        <v>0.02236654621955203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0215556408153294</v>
+      </c>
+      <c r="H92">
+        <v>0.05819915171118404</v>
+      </c>
+      <c r="I92">
+        <v>-0.004377037543378516</v>
+      </c>
+      <c r="J92">
+        <v>0.1513975232830952</v>
+      </c>
+      <c r="K92">
+        <v>0.01025096814759082</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3060061564219194</v>
+        <v>0.3109783891911243</v>
       </c>
       <c r="C93">
-        <v>0.0714120898225665</v>
+        <v>-0.1122814964877942</v>
       </c>
       <c r="D93">
-        <v>0.007973131516769599</v>
+        <v>-0.008794838712702207</v>
       </c>
       <c r="E93">
-        <v>0.06857551176104762</v>
+        <v>0.004691491543540687</v>
       </c>
       <c r="F93">
-        <v>0.02844878906453124</v>
+        <v>-0.03745808083509272</v>
       </c>
       <c r="G93">
-        <v>0.01025112622722847</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04233821133566164</v>
+      </c>
+      <c r="H93">
+        <v>0.02971607579430218</v>
+      </c>
+      <c r="I93">
+        <v>-0.02880163404485307</v>
+      </c>
+      <c r="J93">
+        <v>0.1014440972017873</v>
+      </c>
+      <c r="K93">
+        <v>-0.0146489611891852</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.04052874145761432</v>
+        <v>0.07870795812254479</v>
       </c>
       <c r="C94">
-        <v>-0.1932002859758706</v>
+        <v>0.1621088758073438</v>
       </c>
       <c r="D94">
-        <v>0.1597125499812269</v>
+        <v>0.1086662946765664</v>
       </c>
       <c r="E94">
-        <v>-0.2061538464939643</v>
+        <v>-0.03428909301467478</v>
       </c>
       <c r="F94">
-        <v>-0.06475654511321956</v>
+        <v>0.1570310965027617</v>
       </c>
       <c r="G94">
-        <v>0.5934614394645777</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.5228570856454623</v>
+      </c>
+      <c r="H94">
+        <v>-0.235335755065383</v>
+      </c>
+      <c r="I94">
+        <v>-0.04410100174733961</v>
+      </c>
+      <c r="J94">
+        <v>-0.1103075482233538</v>
+      </c>
+      <c r="K94">
+        <v>0.2533013653826706</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.01977956762523285</v>
+        <v>0.03903278290088232</v>
       </c>
       <c r="C95">
-        <v>-0.09542587852725395</v>
+        <v>0.1276794048466591</v>
       </c>
       <c r="D95">
-        <v>0.04445410791021605</v>
+        <v>0.06198360928518061</v>
       </c>
       <c r="E95">
-        <v>-0.0340279940757661</v>
+        <v>0.01989525488930975</v>
       </c>
       <c r="F95">
-        <v>-0.07456948943226904</v>
+        <v>0.07724028726974276</v>
       </c>
       <c r="G95">
-        <v>-0.0842449021440108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04918260026436842</v>
+      </c>
+      <c r="H95">
+        <v>0.07319781164652769</v>
+      </c>
+      <c r="I95">
+        <v>0.09645354533785677</v>
+      </c>
+      <c r="J95">
+        <v>-0.1625489056000621</v>
+      </c>
+      <c r="K95">
+        <v>0.2637032795719646</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0005646264719801691</v>
+        <v>0.01597332673962259</v>
       </c>
       <c r="C97">
-        <v>-0.000676652305718913</v>
+        <v>0.01695041556879088</v>
       </c>
       <c r="D97">
-        <v>0.001838448713613945</v>
+        <v>-0.006775574695283565</v>
       </c>
       <c r="E97">
-        <v>-0.0007842921214595961</v>
+        <v>0.02982782100138411</v>
       </c>
       <c r="F97">
-        <v>0.003349820125878445</v>
+        <v>0.005570357714668609</v>
       </c>
       <c r="G97">
-        <v>-0.002855258368312285</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.01107534529562196</v>
+      </c>
+      <c r="H97">
+        <v>0.05783801645411294</v>
+      </c>
+      <c r="I97">
+        <v>-0.1455675185544765</v>
+      </c>
+      <c r="J97">
+        <v>-0.05283319633878173</v>
+      </c>
+      <c r="K97">
+        <v>0.03049405162562409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08076016764644835</v>
+        <v>0.1311864068014265</v>
       </c>
       <c r="C98">
-        <v>-0.1374545486838558</v>
+        <v>0.1603473350121322</v>
       </c>
       <c r="D98">
-        <v>0.1370718187820404</v>
+        <v>0.09372111697559869</v>
       </c>
       <c r="E98">
-        <v>-0.0931413130658811</v>
+        <v>-0.03853299096883014</v>
       </c>
       <c r="F98">
-        <v>-0.1023676947008821</v>
+        <v>0.2169730497223735</v>
       </c>
       <c r="G98">
-        <v>-0.2218155275602407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3291924138259024</v>
+      </c>
+      <c r="H98">
+        <v>-0.3123776840146565</v>
+      </c>
+      <c r="I98">
+        <v>-0.131836521103951</v>
+      </c>
+      <c r="J98">
+        <v>0.0848266917563797</v>
+      </c>
+      <c r="K98">
+        <v>-0.07992213701078642</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01775158730120723</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.04358915656359384</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01752120965224628</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.0316484782658582</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.08280802920318352</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.1011324141377986</v>
+      </c>
+      <c r="H99">
+        <v>0.2133322127930296</v>
+      </c>
+      <c r="I99">
+        <v>-0.8872849220766822</v>
+      </c>
+      <c r="J99">
+        <v>-0.1668070157393162</v>
+      </c>
+      <c r="K99">
+        <v>0.003798253756958441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.004629180057967127</v>
+        <v>0.01496631834013203</v>
       </c>
       <c r="C101">
-        <v>-0.072535853419089</v>
+        <v>0.08129956869011357</v>
       </c>
       <c r="D101">
-        <v>0.04635687673891712</v>
+        <v>0.05160736871019614</v>
       </c>
       <c r="E101">
-        <v>0.02379355092186562</v>
+        <v>-0.04677817381111008</v>
       </c>
       <c r="F101">
-        <v>-0.02325713733020592</v>
+        <v>-0.007279628241604692</v>
       </c>
       <c r="G101">
-        <v>-0.112729779831915</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1160565690678362</v>
+      </c>
+      <c r="H101">
+        <v>0.2862321307529068</v>
+      </c>
+      <c r="I101">
+        <v>0.02715324872678554</v>
+      </c>
+      <c r="J101">
+        <v>0.0006963482194645034</v>
+      </c>
+      <c r="K101">
+        <v>0.1751763362780273</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.006150380650062364</v>
+        <v>0.002702521844728233</v>
       </c>
       <c r="C102">
-        <v>-0.02293656092121872</v>
+        <v>0.009170226686684397</v>
       </c>
       <c r="D102">
-        <v>0.0053532344353898</v>
+        <v>-0.001173089089830201</v>
       </c>
       <c r="E102">
-        <v>-0.02468917131768439</v>
+        <v>-0.004162510429115998</v>
       </c>
       <c r="F102">
-        <v>-0.02450137262152638</v>
+        <v>0.007352319249831226</v>
       </c>
       <c r="G102">
-        <v>0.002006569677818841</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.001515561970849509</v>
+      </c>
+      <c r="H102">
+        <v>-0.0002370894742008076</v>
+      </c>
+      <c r="I102">
+        <v>0.0005600514534094876</v>
+      </c>
+      <c r="J102">
+        <v>-0.01395665388951829</v>
+      </c>
+      <c r="K102">
+        <v>-0.0069404781189143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
